--- a/motor speed and other relative data.xlsx
+++ b/motor speed and other relative data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF2FFE9-57D7-4333-83D8-560CD43C0ADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20763C8A-10C8-4ED0-BCEF-D5362F38226D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="power vs speed" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,21 +128,21 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,6 +159,1172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" altLang="zh-CN"/>
+              <a:t>power vs speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2598638080543626"/>
+                  <c:y val="2.7883761421894863E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7278759999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4557519999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.911503999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6393799999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.095132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.823007999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.550884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.006638000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.734512000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.190263999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.918140000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.646017999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.101765999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.829644000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.557519999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70B3-4105-AF6C-8BAA42AF3A15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="487335176"/>
+        <c:axId val="487333208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="487335176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" altLang="zh-CN"/>
+                  <a:t>power</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487333208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487333208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" altLang="zh-CN"/>
+                  <a:t>speed (cm/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487335176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{62DA221D-8609-4EAF-A77A-C4D059AAA9EB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9319347" cy="6039716"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7392FA-3EF6-499C-973D-54DF333AA38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +1593,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,562 +1605,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>C3/B3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>J3*2*PI()/I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>A3+5</f>
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3</f>
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>8.6393799999999992</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D19" si="0">C4/B4</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D18" si="0">C4/B4</f>
         <v>1.7278759999999997</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>H3+5</f>
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>I3</f>
         <v>5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K18" si="1">J4*2*PI()/I4</f>
         <v>1.2566370614359172</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f t="shared" ref="A5:A23" si="2">A4+5</f>
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A18" si="2">A4+5</f>
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ref="B5:B23" si="3">B4</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B18" si="3">B4</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
         <v>17.278759999999998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>3.4557519999999995</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H18" si="4">H4+5</f>
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I18" si="5">I4</f>
         <v>5</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>2.5132741228718345</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>34.557519999999997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>6.911503999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>3.7699111843077517</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>43.196899999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>8.6393799999999992</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>5.026548245743669</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>60.475659999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>12.095132</v>
       </c>
-      <c r="H8" s="3">
+      <c r="F8">
+        <f>(2+0.4701)/0.4762</f>
+        <v>5.1871062578748424</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>6.2831853071795862</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>69.115039999999993</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>13.823007999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>6</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>7.5398223686155035</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>77.754419999999996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>15.550884</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>8.7964594300514207</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>95.033190000000005</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>19.006638000000002</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>8</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>10.053096491487338</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>103.67256</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>20.734512000000002</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>9</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>11.309733552923255</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>120.95132</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>24.190263999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>11</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>13.823007675795088</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>129.5907</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>25.918140000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>12</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>15.079644737231007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>138.23008999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>27.646017999999998</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>13</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>16.336281798666924</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>155.50882999999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>31.101765999999998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>14</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>17.592918860102841</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>164.14822000000001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>32.829644000000002</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>15</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>18.849555921538759</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>172.7876</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>34.557519999999997</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>20.106192982974676</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7">
         <v>2.75</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
@@ -1004,12 +2175,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="H21" t="s">
         <v>12</v>
       </c>
@@ -1018,12 +2189,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4">
         <v>8</v>
       </c>
       <c r="H22" t="s">
@@ -1039,7 +2210,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>9</v>
       </c>
     </row>
